--- a/Gemini/report4.xlsx
+++ b/Gemini/report4.xlsx
@@ -2309,7 +2309,11 @@
           <t>name_parse_evdns_not_vulnerable.c</t>
         </is>
       </c>
-      <c r="B111" t="inlineStr"/>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>NOT VULNERABLE</t>
+        </is>
+      </c>
       <c r="C111" t="inlineStr">
         <is>
           <t>NOT VULNERABLE</t>
